--- a/Diary/docs/05. 설계 - 데이터베이스_설계서.xlsx
+++ b/Diary/docs/05. 설계 - 데이터베이스_설계서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="885" windowWidth="15435" windowHeight="6975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2670" windowWidth="11670" windowHeight="4530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="제∙개정 이력서" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,13 @@
     <definedName name="최병">INDIRECT([1]자료!$B1)</definedName>
     <definedName name="최병호">INDIRECT([3]자료!$B1)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="243">
   <si>
     <t>내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1016,6 +1017,10 @@
   </si>
   <si>
     <t>결제플래그, 삭제플래그, 날짜 데이터 형식 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1692,6 +1697,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1701,12 +1712,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1716,6 +1721,114 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,142 +1841,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2293,14 +2298,14 @@
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.08203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2311,17 +2316,17 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="20.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:6" ht="21">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" thickBot="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2342,12 +2347,12 @@
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="45"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A5" s="8" t="s">
         <v>238</v>
       </c>
@@ -2358,12 +2363,12 @@
         <v>129</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A6" s="8" t="s">
         <v>239</v>
       </c>
@@ -2374,125 +2379,135 @@
         <v>129</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="F6" s="44"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A13" s="6"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A15" s="6"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A16" s="6"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="13.5">
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="16">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1" ht="13.5">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" s="2" customFormat="1" ht="14.25" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -2501,16 +2516,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2527,73 +2532,73 @@
   </sheetPr>
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.9140625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="9" width="7.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="9" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="17.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" thickBot="1">
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.5" thickBot="1">
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="84"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="16" t="s">
         <v>10</v>
       </c>
@@ -2602,80 +2607,80 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5">
-      <c r="A6" s="60" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="73" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+    </row>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="86" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="56" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="1:10" ht="17">
+      <c r="A8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
-      <c r="A9" s="77" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+    </row>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="77"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="49" t="s">
         <v>133</v>
       </c>
@@ -2688,8 +2693,8 @@
       <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="49"/>
       <c r="D10" s="50"/>
       <c r="E10" s="51"/>
@@ -2700,82 +2705,82 @@
       <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="60" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="1:10" ht="17">
+      <c r="A13" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5">
-      <c r="A14" s="73" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+    </row>
+    <row r="14" spans="1:10" ht="17">
+      <c r="A14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="74"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="74"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="59"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5">
-      <c r="A15" s="56" t="s">
+      <c r="H14" s="78"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+    </row>
+    <row r="15" spans="1:10" ht="17">
+      <c r="A15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="57" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="59"/>
+      <c r="H15" s="78"/>
       <c r="I15" s="23"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5">
+    <row r="16" spans="1:10" ht="17">
       <c r="A16" s="13" t="s">
         <v>28</v>
       </c>
@@ -2785,21 +2790,21 @@
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70" t="s">
+      <c r="H16" s="85"/>
+      <c r="I16" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="70"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1">
       <c r="A17" s="26"/>
@@ -2849,7 +2854,7 @@
       <c r="I19" s="49"/>
       <c r="J19" s="51"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5">
+    <row r="20" spans="1:10" ht="17">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27" t="s">
@@ -2866,68 +2871,68 @@
       <c r="J20" s="51"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5">
-      <c r="A23" s="60" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+    </row>
+    <row r="23" spans="1:10" ht="17">
+      <c r="A23" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5">
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+    </row>
+    <row r="24" spans="1:10" ht="17">
       <c r="A24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5">
-      <c r="A25" s="57" t="s">
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80"/>
+    </row>
+    <row r="25" spans="1:10" ht="17">
+      <c r="A25" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21" t="s">
         <v>194</v>
@@ -2936,16 +2941,16 @@
       <c r="F25" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="49"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
@@ -2955,11 +2960,11 @@
       <c r="I26" s="50"/>
       <c r="J26" s="51"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:10" ht="17">
+      <c r="A27" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="56"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="49" t="s">
         <v>143</v>
       </c>
@@ -2987,13 +2992,13 @@
       <c r="E28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="59"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="78"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" customHeight="1">
       <c r="A29" s="26"/>
@@ -3008,50 +3013,50 @@
       <c r="J29" s="51"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H30" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="52" t="s">
+      <c r="J30" s="88" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5">
+      <c r="A31" s="89"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+    </row>
+    <row r="32" spans="1:10" ht="17">
       <c r="A32" s="34" t="s">
         <v>196</v>
       </c>
@@ -3073,7 +3078,7 @@
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5">
+    <row r="33" spans="1:10" ht="17">
       <c r="A33" s="34" t="s">
         <v>197</v>
       </c>
@@ -3097,7 +3102,7 @@
       </c>
       <c r="J33" s="35"/>
     </row>
-    <row r="34" spans="1:10" ht="16.5">
+    <row r="34" spans="1:10" ht="17">
       <c r="A34" s="34" t="s">
         <v>198</v>
       </c>
@@ -3119,7 +3124,7 @@
       <c r="I34" s="35"/>
       <c r="J34" s="35"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5">
+    <row r="35" spans="1:10" ht="17">
       <c r="A35" s="34" t="s">
         <v>199</v>
       </c>
@@ -3141,7 +3146,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
     </row>
-    <row r="36" spans="1:10" ht="16.5">
+    <row r="36" spans="1:10" ht="17">
       <c r="A36" s="34" t="s">
         <v>200</v>
       </c>
@@ -3165,7 +3170,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5">
+    <row r="37" spans="1:10" ht="17">
       <c r="A37" s="34" t="s">
         <v>201</v>
       </c>
@@ -3173,7 +3178,7 @@
         <v>149</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>164</v>
@@ -3187,7 +3192,7 @@
       <c r="I37" s="35"/>
       <c r="J37" s="35"/>
     </row>
-    <row r="38" spans="1:10" ht="16.5">
+    <row r="38" spans="1:10" ht="17">
       <c r="A38" s="34" t="s">
         <v>209</v>
       </c>
@@ -3213,7 +3218,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="33">
+    <row r="39" spans="1:10" ht="34">
       <c r="A39" s="34" t="s">
         <v>202</v>
       </c>
@@ -3239,7 +3244,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="99">
+    <row r="40" spans="1:10" ht="136">
       <c r="A40" s="34" t="s">
         <v>204</v>
       </c>
@@ -3259,7 +3264,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="33">
+    <row r="41" spans="1:10" ht="34">
       <c r="A41" s="34" t="s">
         <v>203</v>
       </c>
@@ -3279,7 +3284,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5">
+    <row r="42" spans="1:10" ht="17">
       <c r="A42" s="34" t="s">
         <v>205</v>
       </c>
@@ -3299,7 +3304,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5">
+    <row r="43" spans="1:10" ht="17">
       <c r="A43" s="34" t="s">
         <v>206</v>
       </c>
@@ -3319,7 +3324,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5">
+    <row r="44" spans="1:10" ht="17">
       <c r="A44" s="34" t="s">
         <v>207</v>
       </c>
@@ -3339,7 +3344,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5">
+    <row r="45" spans="1:10" ht="17">
       <c r="A45" s="34" t="s">
         <v>208</v>
       </c>
@@ -3361,45 +3366,45 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5">
-      <c r="A48" s="60" t="s">
+    <row r="48" spans="1:10" ht="17">
+      <c r="A48" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-    </row>
-    <row r="49" spans="1:10" ht="16.5">
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+    </row>
+    <row r="49" spans="1:10" ht="17">
       <c r="A49" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="83"/>
       <c r="F49" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="67" t="s">
+      <c r="G49" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="69"/>
-    </row>
-    <row r="50" spans="1:10" ht="16.5">
-      <c r="A50" s="57" t="s">
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="80"/>
+    </row>
+    <row r="50" spans="1:10" ht="17">
+      <c r="A50" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="59"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="21"/>
       <c r="D50" s="21" t="s">
         <v>194</v>
@@ -3408,16 +3413,16 @@
       <c r="F50" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="69"/>
-    </row>
-    <row r="51" spans="1:10" ht="16.5">
-      <c r="A51" s="56" t="s">
+      <c r="G50" s="86"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="80"/>
+    </row>
+    <row r="51" spans="1:10" ht="17">
+      <c r="A51" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="56"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="49"/>
       <c r="D51" s="50"/>
       <c r="E51" s="50"/>
@@ -3427,11 +3432,11 @@
       <c r="I51" s="50"/>
       <c r="J51" s="51"/>
     </row>
-    <row r="52" spans="1:10" ht="16.5">
-      <c r="A52" s="56" t="s">
+    <row r="52" spans="1:10" ht="17">
+      <c r="A52" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="56"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="49" t="s">
         <v>173</v>
       </c>
@@ -3443,7 +3448,7 @@
       <c r="I52" s="50"/>
       <c r="J52" s="51"/>
     </row>
-    <row r="53" spans="1:10" ht="16.5">
+    <row r="53" spans="1:10" ht="17">
       <c r="A53" s="33" t="s">
         <v>40</v>
       </c>
@@ -3459,15 +3464,15 @@
       <c r="E53" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="57" t="s">
+      <c r="F53" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="59"/>
-    </row>
-    <row r="54" spans="1:10" ht="16.5">
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="78"/>
+    </row>
+    <row r="54" spans="1:10" ht="17">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="27"/>
@@ -3480,50 +3485,50 @@
       <c r="J54" s="51"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="52" t="s">
+      <c r="F55" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="52" t="s">
+      <c r="G55" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="H55" s="52" t="s">
+      <c r="H55" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="52" t="s">
+      <c r="I55" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="52" t="s">
+      <c r="J55" s="88" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-    </row>
-    <row r="57" spans="1:10" ht="16.5">
+      <c r="A56" s="89"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+    </row>
+    <row r="57" spans="1:10" ht="17">
       <c r="A57" s="34" t="s">
         <v>220</v>
       </c>
@@ -3545,7 +3550,7 @@
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
     </row>
-    <row r="58" spans="1:10" ht="16.5">
+    <row r="58" spans="1:10" ht="34">
       <c r="A58" s="34" t="s">
         <v>221</v>
       </c>
@@ -3569,7 +3574,7 @@
       </c>
       <c r="J58" s="35"/>
     </row>
-    <row r="59" spans="1:10" ht="16.5">
+    <row r="59" spans="1:10" ht="17">
       <c r="A59" s="37"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -3581,7 +3586,7 @@
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
     </row>
-    <row r="60" spans="1:10" ht="16.5">
+    <row r="60" spans="1:10" ht="17">
       <c r="A60" s="40"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -3593,45 +3598,45 @@
       <c r="I60" s="42"/>
       <c r="J60" s="42"/>
     </row>
-    <row r="61" spans="1:10" ht="16.5">
-      <c r="A61" s="60" t="s">
+    <row r="61" spans="1:10" ht="17">
+      <c r="A61" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
-      <c r="J61" s="64"/>
-    </row>
-    <row r="62" spans="1:10" ht="16.5">
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+    </row>
+    <row r="62" spans="1:10" ht="17">
       <c r="A62" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="66"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="83"/>
       <c r="F62" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="67" t="s">
+      <c r="G62" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="69"/>
-    </row>
-    <row r="63" spans="1:10" ht="16.5">
-      <c r="A63" s="57" t="s">
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="80"/>
+    </row>
+    <row r="63" spans="1:10" ht="17">
+      <c r="A63" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="59"/>
+      <c r="B63" s="78"/>
       <c r="C63" s="21"/>
       <c r="D63" s="21" t="s">
         <v>194</v>
@@ -3640,16 +3645,16 @@
       <c r="F63" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="67"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="69"/>
-    </row>
-    <row r="64" spans="1:10" ht="16.5">
-      <c r="A64" s="56" t="s">
+      <c r="G63" s="86"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="80"/>
+    </row>
+    <row r="64" spans="1:10" ht="17">
+      <c r="A64" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="56"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="49"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
@@ -3659,11 +3664,11 @@
       <c r="I64" s="50"/>
       <c r="J64" s="51"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5">
-      <c r="A65" s="56" t="s">
+    <row r="65" spans="1:10" ht="17">
+      <c r="A65" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="56"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="49" t="s">
         <v>177</v>
       </c>
@@ -3675,7 +3680,7 @@
       <c r="I65" s="50"/>
       <c r="J65" s="51"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5">
+    <row r="66" spans="1:10" ht="17">
       <c r="A66" s="33" t="s">
         <v>40</v>
       </c>
@@ -3691,15 +3696,15 @@
       <c r="E66" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F66" s="57" t="s">
+      <c r="F66" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="59"/>
-    </row>
-    <row r="67" spans="1:10" ht="16.5">
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="78"/>
+    </row>
+    <row r="67" spans="1:10" ht="17">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
       <c r="C67" s="27"/>
@@ -3712,50 +3717,50 @@
       <c r="J67" s="51"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="52" t="s">
+      <c r="F68" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="52" t="s">
+      <c r="G68" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="H68" s="52" t="s">
+      <c r="H68" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="52" t="s">
+      <c r="I68" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J68" s="52" t="s">
+      <c r="J68" s="88" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="53"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-    </row>
-    <row r="70" spans="1:10" ht="16.5">
+      <c r="A69" s="89"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
+    </row>
+    <row r="70" spans="1:10" ht="17">
       <c r="A70" s="34" t="s">
         <v>210</v>
       </c>
@@ -3777,7 +3782,7 @@
       <c r="I70" s="35"/>
       <c r="J70" s="35"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5">
+    <row r="71" spans="1:10" ht="17">
       <c r="A71" s="34" t="s">
         <v>211</v>
       </c>
@@ -3801,7 +3806,7 @@
       <c r="I71" s="35"/>
       <c r="J71" s="35"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5">
+    <row r="72" spans="1:10" ht="17">
       <c r="A72" s="34" t="s">
         <v>212</v>
       </c>
@@ -3825,7 +3830,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16.5">
+    <row r="73" spans="1:10" ht="17">
       <c r="A73" s="34" t="s">
         <v>213</v>
       </c>
@@ -3847,7 +3852,7 @@
       <c r="I73" s="35"/>
       <c r="J73" s="35"/>
     </row>
-    <row r="74" spans="1:10" ht="82.5">
+    <row r="74" spans="1:10" ht="85">
       <c r="A74" s="34" t="s">
         <v>214</v>
       </c>
@@ -3871,7 +3876,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="33">
+    <row r="75" spans="1:10" ht="34">
       <c r="A75" s="34" t="s">
         <v>215</v>
       </c>
@@ -3897,7 +3902,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16.5">
+    <row r="76" spans="1:10" ht="17">
       <c r="A76" s="34" t="s">
         <v>216</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="33">
+    <row r="77" spans="1:10" ht="34">
       <c r="A77" s="34" t="s">
         <v>217</v>
       </c>
@@ -3949,7 +3954,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="16.5">
+    <row r="78" spans="1:10" ht="17">
       <c r="A78" s="34" t="s">
         <v>218</v>
       </c>
@@ -3971,7 +3976,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="16.5">
+    <row r="79" spans="1:10" ht="17">
       <c r="A79" s="34" t="s">
         <v>219</v>
       </c>
@@ -3993,7 +3998,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="16.5">
+    <row r="80" spans="1:10" ht="17">
       <c r="A80" s="37"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -4005,7 +4010,7 @@
       <c r="I80" s="39"/>
       <c r="J80" s="39"/>
     </row>
-    <row r="81" spans="1:10" ht="16.5">
+    <row r="81" spans="1:10" ht="17">
       <c r="A81" s="40"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -4017,45 +4022,45 @@
       <c r="I81" s="42"/>
       <c r="J81" s="42"/>
     </row>
-    <row r="82" spans="1:10" ht="16.5">
-      <c r="A82" s="60" t="s">
+    <row r="82" spans="1:10" ht="17">
+      <c r="A82" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="61"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-    </row>
-    <row r="83" spans="1:10" ht="16.5">
+      <c r="B82" s="73"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="76"/>
+    </row>
+    <row r="83" spans="1:10" ht="17">
       <c r="A83" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="66"/>
+      <c r="C83" s="82"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="83"/>
       <c r="F83" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G83" s="67" t="s">
+      <c r="G83" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="69"/>
-    </row>
-    <row r="84" spans="1:10" ht="16.5">
-      <c r="A84" s="57" t="s">
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="80"/>
+    </row>
+    <row r="84" spans="1:10" ht="17">
+      <c r="A84" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="59"/>
+      <c r="B84" s="78"/>
       <c r="C84" s="21"/>
       <c r="D84" s="21" t="s">
         <v>194</v>
@@ -4064,16 +4069,16 @@
       <c r="F84" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G84" s="67"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="69"/>
-    </row>
-    <row r="85" spans="1:10" ht="16.5">
-      <c r="A85" s="56" t="s">
+      <c r="G84" s="86"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="80"/>
+    </row>
+    <row r="85" spans="1:10" ht="17">
+      <c r="A85" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="56"/>
+      <c r="B85" s="52"/>
       <c r="C85" s="49"/>
       <c r="D85" s="50"/>
       <c r="E85" s="50"/>
@@ -4083,11 +4088,11 @@
       <c r="I85" s="50"/>
       <c r="J85" s="51"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5">
-      <c r="A86" s="56" t="s">
+    <row r="86" spans="1:10" ht="17">
+      <c r="A86" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="56"/>
+      <c r="B86" s="52"/>
       <c r="C86" s="49" t="s">
         <v>191</v>
       </c>
@@ -4099,7 +4104,7 @@
       <c r="I86" s="50"/>
       <c r="J86" s="51"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5">
+    <row r="87" spans="1:10" ht="17">
       <c r="A87" s="33" t="s">
         <v>40</v>
       </c>
@@ -4115,15 +4120,15 @@
       <c r="E87" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F87" s="57" t="s">
+      <c r="F87" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="59"/>
-    </row>
-    <row r="88" spans="1:10" ht="16.5">
+      <c r="G87" s="87"/>
+      <c r="H87" s="87"/>
+      <c r="I87" s="87"/>
+      <c r="J87" s="78"/>
+    </row>
+    <row r="88" spans="1:10" ht="17">
       <c r="A88" s="26"/>
       <c r="B88" s="26"/>
       <c r="C88" s="27"/>
@@ -4136,50 +4141,50 @@
       <c r="J88" s="51"/>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="52" t="s">
+      <c r="D89" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="E89" s="52" t="s">
+      <c r="E89" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="52" t="s">
+      <c r="F89" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="52" t="s">
+      <c r="G89" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="H89" s="52" t="s">
+      <c r="H89" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="52" t="s">
+      <c r="I89" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J89" s="52" t="s">
+      <c r="J89" s="88" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="53"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
-    </row>
-    <row r="91" spans="1:10" ht="16.5">
+      <c r="A90" s="89"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="89"/>
+      <c r="J90" s="89"/>
+    </row>
+    <row r="91" spans="1:10" ht="17">
       <c r="A91" s="34" t="s">
         <v>222</v>
       </c>
@@ -4201,7 +4206,7 @@
       <c r="I91" s="35"/>
       <c r="J91" s="35"/>
     </row>
-    <row r="92" spans="1:10" ht="49.5">
+    <row r="92" spans="1:10" ht="51">
       <c r="A92" s="34" t="s">
         <v>223</v>
       </c>
@@ -4223,34 +4228,94 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:J5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:J8"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G20:H20"/>
@@ -4267,94 +4332,34 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:J5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:J8"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4374,1200 +4379,1259 @@
       <selection activeCell="A52" sqref="A52:J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" thickBot="1">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1"/>
-    <row r="4" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A4" s="94" t="s">
+    <row r="4" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A4" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-    </row>
-    <row r="5" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A5" s="101" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+    </row>
+    <row r="5" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A5" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-    </row>
-    <row r="6" spans="1:10" s="30" customFormat="1" ht="12">
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+    </row>
+    <row r="6" spans="1:10" s="30" customFormat="1" ht="13">
       <c r="A6" s="31"/>
     </row>
-    <row r="7" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A7" s="94" t="s">
+    <row r="7" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A7" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-    </row>
-    <row r="8" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A8" s="101" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+    </row>
+    <row r="8" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A8" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-    </row>
-    <row r="9" spans="1:10" s="30" customFormat="1" ht="12">
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+    </row>
+    <row r="9" spans="1:10" s="30" customFormat="1" ht="13">
       <c r="A9" s="31"/>
     </row>
-    <row r="10" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A10" s="94" t="s">
+    <row r="10" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A10" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-    </row>
-    <row r="11" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A11" s="92" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+    </row>
+    <row r="11" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A11" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-    </row>
-    <row r="12" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A12" s="93" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+    </row>
+    <row r="12" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A12" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-    </row>
-    <row r="13" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A13" s="92" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A13" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-    </row>
-    <row r="14" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A14" s="92" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+    </row>
+    <row r="14" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A14" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-    </row>
-    <row r="15" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A15" s="92" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+    </row>
+    <row r="15" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A15" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-    </row>
-    <row r="16" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A16" s="92" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+    </row>
+    <row r="16" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A16" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-    </row>
-    <row r="17" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A17" s="92" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+    </row>
+    <row r="17" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A17" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-    </row>
-    <row r="18" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A18" s="92" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+    </row>
+    <row r="18" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A18" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-    </row>
-    <row r="19" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A19" s="92" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+    </row>
+    <row r="19" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A19" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-    </row>
-    <row r="20" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A20" s="92" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+    </row>
+    <row r="20" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A20" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-    </row>
-    <row r="21" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A21" s="92" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+    </row>
+    <row r="21" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A21" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-    </row>
-    <row r="22" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A22" s="92" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+    </row>
+    <row r="22" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A22" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-    </row>
-    <row r="23" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A23" s="92" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+    </row>
+    <row r="23" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A23" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-    </row>
-    <row r="24" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A24" s="92" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+    </row>
+    <row r="24" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A24" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-    </row>
-    <row r="25" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A25" s="92" t="s">
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+    </row>
+    <row r="25" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A25" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-    </row>
-    <row r="26" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A26" s="92" t="s">
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+    </row>
+    <row r="26" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A26" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-    </row>
-    <row r="27" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A27" s="92" t="s">
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+    </row>
+    <row r="27" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A27" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-    </row>
-    <row r="28" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A28" s="92" t="s">
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+    </row>
+    <row r="28" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A28" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-    </row>
-    <row r="29" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A29" s="92" t="s">
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+    </row>
+    <row r="29" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A29" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-    </row>
-    <row r="30" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A30" s="92" t="s">
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+    </row>
+    <row r="30" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A30" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-    </row>
-    <row r="31" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A31" s="92" t="s">
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+    </row>
+    <row r="31" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A31" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-    </row>
-    <row r="32" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A32" s="92" t="s">
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+    </row>
+    <row r="32" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A32" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-    </row>
-    <row r="33" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A33" s="92" t="s">
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+    </row>
+    <row r="33" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A33" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-    </row>
-    <row r="34" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A34" s="92" t="s">
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+    </row>
+    <row r="34" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A34" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-    </row>
-    <row r="35" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A35" s="92" t="s">
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+    </row>
+    <row r="35" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A35" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-    </row>
-    <row r="36" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A36" s="92" t="s">
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+    </row>
+    <row r="36" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A36" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-    </row>
-    <row r="37" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A37" s="92" t="s">
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+    </row>
+    <row r="37" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A37" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-    </row>
-    <row r="38" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A38" s="92" t="s">
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+    </row>
+    <row r="38" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A38" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-    </row>
-    <row r="39" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A39" s="92" t="s">
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+    </row>
+    <row r="39" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A39" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-    </row>
-    <row r="40" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A40" s="92" t="s">
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+    </row>
+    <row r="40" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A40" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-    </row>
-    <row r="41" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A41" s="92" t="s">
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+    </row>
+    <row r="41" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A41" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-    </row>
-    <row r="42" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A42" s="92" t="s">
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+    </row>
+    <row r="42" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A42" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
-    </row>
-    <row r="43" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A43" s="92" t="s">
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+    </row>
+    <row r="43" spans="1:10" s="30" customFormat="1" ht="13">
+      <c r="A43" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
     </row>
     <row r="44" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
     </row>
     <row r="45" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A45" s="92" t="s">
+      <c r="A45" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="100"/>
     </row>
     <row r="46" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
     </row>
     <row r="47" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
     </row>
     <row r="48" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A48" s="92" t="s">
+      <c r="A48" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
     </row>
     <row r="49" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100"/>
     </row>
     <row r="50" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
     </row>
     <row r="51" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
     </row>
     <row r="52" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
     </row>
     <row r="53" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
     </row>
     <row r="54" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A54" s="92" t="s">
+      <c r="A54" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
     </row>
     <row r="55" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A55" s="92" t="s">
+      <c r="A55" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
     </row>
     <row r="56" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A56" s="92" t="s">
+      <c r="A56" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
     </row>
     <row r="57" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A57" s="92" t="s">
+      <c r="A57" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
     </row>
     <row r="58" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
     </row>
     <row r="59" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
     </row>
     <row r="60" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="100"/>
     </row>
     <row r="61" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="92"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="100"/>
     </row>
     <row r="62" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="92"/>
-      <c r="J62" s="92"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
     </row>
     <row r="63" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
     </row>
     <row r="64" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="92"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="100"/>
     </row>
     <row r="65" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A65" s="92" t="s">
+      <c r="A65" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="92"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="100"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="100"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="100"/>
     </row>
     <row r="66" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A66" s="92" t="s">
+      <c r="A66" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="100"/>
+      <c r="J66" s="100"/>
     </row>
     <row r="67" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A67" s="92" t="s">
+      <c r="A67" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="100"/>
     </row>
     <row r="68" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="92"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="100"/>
     </row>
     <row r="69" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="92"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="100"/>
+      <c r="J69" s="100"/>
     </row>
     <row r="70" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A70" s="92" t="s">
+      <c r="A70" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="100"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="100"/>
     </row>
     <row r="71" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A71" s="92" t="s">
+      <c r="A71" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="92"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="100"/>
     </row>
     <row r="72" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A72" s="92" t="s">
+      <c r="A72" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="100"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="100"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="100"/>
+      <c r="I72" s="100"/>
+      <c r="J72" s="100"/>
     </row>
     <row r="73" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="92"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="100"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="100"/>
+      <c r="I73" s="100"/>
+      <c r="J73" s="100"/>
     </row>
     <row r="74" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A74" s="92" t="s">
+      <c r="A74" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="92"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="100"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="100"/>
+      <c r="J74" s="100"/>
     </row>
     <row r="75" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A75" s="92" t="s">
+      <c r="A75" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="92"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="92"/>
-      <c r="J75" s="92"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="100"/>
+      <c r="G75" s="100"/>
+      <c r="H75" s="100"/>
+      <c r="I75" s="100"/>
+      <c r="J75" s="100"/>
     </row>
     <row r="76" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="92"/>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92"/>
-      <c r="H76" s="92"/>
-      <c r="I76" s="92"/>
-      <c r="J76" s="92"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
     </row>
     <row r="77" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="92"/>
-      <c r="J77" s="92"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="100"/>
     </row>
     <row r="78" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A78" s="92" t="s">
+      <c r="A78" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="92"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="100"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="100"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="100"/>
+      <c r="J78" s="100"/>
     </row>
     <row r="79" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A79" s="92" t="s">
+      <c r="A79" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="100"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="100"/>
+      <c r="I79" s="100"/>
+      <c r="J79" s="100"/>
     </row>
     <row r="80" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A80" s="92" t="s">
+      <c r="A80" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="92"/>
-      <c r="G80" s="92"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="92"/>
-      <c r="J80" s="92"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="100"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="100"/>
+      <c r="F80" s="100"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="100"/>
+      <c r="I80" s="100"/>
+      <c r="J80" s="100"/>
     </row>
     <row r="81" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="92"/>
-      <c r="G81" s="92"/>
-      <c r="H81" s="92"/>
-      <c r="I81" s="92"/>
-      <c r="J81" s="92"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="100"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="100"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="100"/>
+      <c r="I81" s="100"/>
+      <c r="J81" s="100"/>
     </row>
     <row r="82" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
-      <c r="F82" s="92"/>
-      <c r="G82" s="92"/>
-      <c r="H82" s="92"/>
-      <c r="I82" s="92"/>
-      <c r="J82" s="92"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="100"/>
+      <c r="F82" s="100"/>
+      <c r="G82" s="100"/>
+      <c r="H82" s="100"/>
+      <c r="I82" s="100"/>
+      <c r="J82" s="100"/>
     </row>
     <row r="83" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="92"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
+      <c r="I83" s="100"/>
+      <c r="J83" s="100"/>
     </row>
     <row r="84" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
-      <c r="F84" s="92"/>
-      <c r="G84" s="92"/>
-      <c r="H84" s="92"/>
-      <c r="I84" s="92"/>
-      <c r="J84" s="92"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="100"/>
+      <c r="D84" s="100"/>
+      <c r="E84" s="100"/>
+      <c r="F84" s="100"/>
+      <c r="G84" s="100"/>
+      <c r="H84" s="100"/>
+      <c r="I84" s="100"/>
+      <c r="J84" s="100"/>
     </row>
     <row r="85" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A85" s="92" t="s">
+      <c r="A85" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="92"/>
-      <c r="J85" s="92"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="100"/>
     </row>
     <row r="86" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A86" s="92" t="s">
+      <c r="A86" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="92"/>
-      <c r="J86" s="92"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="100"/>
+      <c r="D86" s="100"/>
+      <c r="E86" s="100"/>
+      <c r="F86" s="100"/>
+      <c r="G86" s="100"/>
+      <c r="H86" s="100"/>
+      <c r="I86" s="100"/>
+      <c r="J86" s="100"/>
     </row>
     <row r="87" spans="1:10" s="30" customFormat="1" ht="12">
-      <c r="A87" s="92" t="s">
+      <c r="A87" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="100"/>
+      <c r="E87" s="100"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="100"/>
+      <c r="H87" s="100"/>
+      <c r="I87" s="100"/>
+      <c r="J87" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="A86:J86"/>
+    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A81:J81"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
@@ -5580,71 +5644,12 @@
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A83:J83"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="A86:J86"/>
-    <mergeCell ref="A87:J87"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
